--- a/templates/space_template.xlsx
+++ b/templates/space_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuananhnguyen/Downloads/space_importer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_GitHubRepos_4\Siba23k\Siba_be\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61E42B89-70F7-8D43-B713-D07333320EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0158502A-8953-4C78-A8FA-B02CC8D0D0A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Studio</t>
   </si>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>Space type</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>Space name 1</t>
@@ -359,16 +353,16 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="6" max="9" width="12.6640625" style="5"/>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="6" max="9" width="12.6328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -403,9 +397,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -431,16 +425,16 @@
       <c r="I2" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
+      <c r="J2" s="3">
+        <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
@@ -466,70 +460,70 @@
       <c r="I3" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
+      <c r="J3" s="3">
+        <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="D15" s="2"/>

--- a/templates/space_template.xlsx
+++ b/templates/space_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_GitHubRepos_4\Siba23k\Siba_be\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juuso\git\siba\Siba_be\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0158502A-8953-4C78-A8FA-B02CC8D0D0A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBC5E207-1BE1-407C-A174-221D76FE0182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Studio</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Space name 2</t>
+  </si>
+  <si>
+    <t>Is low noise</t>
   </si>
 </sst>
 </file>
@@ -350,19 +353,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
-    <col min="6" max="9" width="12.6328125" style="5"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="6" max="9" width="12.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -394,10 +397,13 @@
         <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -428,11 +434,14 @@
       <c r="J2" s="3">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -463,67 +472,70 @@
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="D15" s="2"/>

--- a/templates/space_template.xlsx
+++ b/templates/space_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juuso\git\siba\Siba_be\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBC5E207-1BE1-407C-A174-221D76FE0182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE8DA4BC-126C-4F14-B79F-450A455BC9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Studio</t>
   </si>
@@ -77,6 +77,21 @@
   </si>
   <si>
     <t>Is low noise</t>
+  </si>
+  <si>
+    <t>Space name 3</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -128,13 +143,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,7 +372,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -431,11 +447,11 @@
       <c r="I2" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -469,26 +485,55 @@
       <c r="I3" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="L3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
